--- a/biology/Botanique/Ochromonas/Ochromonas.xlsx
+++ b/biology/Botanique/Ochromonas/Ochromonas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ochromonas est un genre d'algues unicellulaires brun-jaune de la classe des Chrysophycées vivant en eau douce, plus rarement dans la mer. Ils possèdent deux flagelles et sont capables de photosynthèse. Ils regroupent près de 80 espèces.
 </t>
@@ -511,7 +523,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le noyau se trouve au milieu de la cellule. Elle contient également un ou deux plastes près de la paroi. Sur l'avant, elle possède une ou deux vacuoles contractiles qui lui permettent d'évacuer l'eau en excès et aussi de se déplacer. Elle est aussi capable de mouvements amiboïdes.
 La multiplication asexuée se fait par une simple fission longitudinale. Deux nouveaux flagelles sont formés avant la division et répartis entre les deux cellules filles. La reproduction se fait avec une fécondation par isogamie : après la fusion de deux gamètes, une cellule durable se forme avec une paroi à base d'acide silicique.
@@ -544,9 +558,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon AlgaeBase                                           (22 décembre 2018)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon AlgaeBase                                           (22 décembre 2018) :
 Ochromonas aestuarii Gayral &amp; Billard (Statut incertain)
 Ochromonas allorgei Bourrelly
 Ochromonas aspera Playfair
@@ -613,7 +629,7 @@
 Ochromonas villosa Clarke &amp; Pennick
 Ochromonas viridis Böcher (Sans vérification)
 Ochromonas vulcania Gromov, Nikitina &amp; Mamkayeva
-Selon ITIS      (22 décembre 2018)[3] :
+Selon ITIS      (22 décembre 2018) :
 Ochromonas carolina
 Ochromonas danica Pringsheim, 1955
 Ochromonas globosa Skuja
@@ -630,7 +646,7 @@
 Ochromonas vallesiaca Chodat
 Ochromonas variabilis
 Ochromonas verrucosa Skuja
-Selon NCBI  (22 décembre 2018)[4] :
+Selon NCBI  (22 décembre 2018) :
 Ochromonas danica SAG 933-7
 Ochromonas distigma
 Ochromonas marina
@@ -641,7 +657,7 @@
 Ochromonas tuberculata
 Ochromonas vasocystis
 Ochromonas villosa Clarke &amp; Pennick
-Selon World Register of Marine Species                               (22 décembre 2018)[2] :
+Selon World Register of Marine Species                               (22 décembre 2018) :
 Ochromonas allorgei Bourrelly
 Ochromonas aspera Playfair, 1921
 Ochromonas bourrellyi Magne, 1954
